--- a/학습자료/단답형/객관식_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어4글자.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>富貴功名
-1. 맥수지탄
-2. 견강부회
-3. 부귀공명</t>
+1. 우이독경
+2. 부귀공명
+3. 맥수지탄</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 부귀공명</t>
+          <t>2, 부귀공명</t>
         </is>
       </c>
     </row>
@@ -464,179 +464,179 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>全力投球
+1. 전력투구
+2. 망양지탄
+3. 만시지탄</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1, 전력투구</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>兎死狗烹
+1. 맥수지탄
+2. 낭중지추
+3. 토사구팽</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3, 토사구팽</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>捲土重來
+1. 만시지탄
+2. 부귀공명
+3. 권토중래</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3, 권토중래</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>手不釋卷
+1. 일사불란
+2. 맥수지탄
+3. 수불석권</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 수불석권</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>我田引水
+1. 은인자중
+2. 아전인수
+3. 추처낭중</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 아전인수</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>對症療法
+1. 대증요법
+2. 추처낭중
+3. 벽사진경</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 대증요법</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>和而不同
+1. 만시지탄
+2. 화이부동 
+3. 풍목지비</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>一絲不亂
+1. 권토중래
+2. 경국지사
+3. 일사불란</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>穀腹絲身
+1. 대증요법
+2. 곡복사신
+3. 부귀공명</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2, 곡복사신, 밥 먹고 옷 입는 일</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>牛耳讀經
+1. 우이독경
+2. 권토중래
+3. 맥수지탄</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, 우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>經國之士
+1. 절치부심
+2. 경국지사
+3. 낭중지추</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, 경국지사, 나랏일을 다스릴 만한 사람</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>漢江投石
 1. 우이독경
 2. 전력투구
-3. 벽사진경</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2, 전력투구</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>兎死狗烹
-1. 곡복사신
-2. 벽사진경
-3. 토사구팽</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, 토사구팽</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>捲土重來
-1. 일사불란
-2. 경국지사
-3. 권토중래</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3, 권토중래</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>手不釋卷
-1. 수불석권(Scroll)
-2. 망양지탄
-3. 비육지탄</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1, 수불석권(Scroll)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>我田引水
-1. 아전인수
-2. 한강투석
-3. 맥수지탄</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1, 아전인수</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>對症療法
-1. 대증요법(Symptomatic)
-2. 화이부동 
-3. 전력투구</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 대증요법(Symptomatic)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>和而不同
-1. 화이부동 
-2. 경국지사
-3. 벽사진경</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1, 화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음(Harmonious)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>一絲不亂
-1. 일사불란
-2. 수불석권(Scroll)
-3. 망양지탄</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>穀腹絲身
-1. 곡복사신
-2. 대증요법(Symptomatic)
-3. 비육지탄</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, 곡복사신, 밥 먹고 옷 입는 일</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>牛耳讀經
-1. 전력투구
-2. 우이독경
-3. 아전인수</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, 우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>經國之士
-1. 사필귀정
-2. 경국지사
-3. 벽사진경</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 경국지사, 나랏일을 다스릴 만한 사람(Scholar)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>漢江投石
-1. 한강투석
-2. 부귀공명
-3. 일사불란</t>
+3. 한강투석</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1, 한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
+          <t>3, 한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
 1) 아무리 도와도 보람이 없는 것
 2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
@@ -646,14 +646,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>麥秀之歎
-1. 맥수지탄
-2. 전력투구
-3. 곡복사신</t>
+1. 한강투석
+2. 맥수지탄
+3. 망양지탄</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, 맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+          <t>2, 맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
     </row>
@@ -661,8 +661,8 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>風樹之歎
-1. 비육지탄
-2. 아전인수
+1. 대증요법
+2. 만시지탄
 3. 풍수지탄</t>
         </is>
       </c>
@@ -676,8 +676,8 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>亡羊之歎
-1. 맥수지탄
-2. 전력투구
+1. 권토중래
+2. 수불석권
 3. 망양지탄</t>
         </is>
       </c>
@@ -694,13 +694,13 @@
         <is>
           <t>望洋之歎
 1. 낭중지추
-2. 전력투구
-3. 망양지탄</t>
+2. 망양지탄
+3. 견강부회</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 망양지탄, 
+          <t>2, 망양지탄, 
 1) 「넓은 바다를 보고 탄식(歎息)한다」는 뜻으로,
 2) 남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩)
 3) 제힘이 미치지 못할 때 하는 탄식(歎息)</t>
@@ -711,8 +711,8 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>晩時之歎
-1. 수불석권(Scroll)
-2. 일사불란
+1. 사필귀정
+2. 망양지탄
 3. 만시지탄</t>
         </is>
       </c>
@@ -726,17 +726,17 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>髀肉之嘆
-1. 비육지탄
-2. 대증요법(Symptomatic)
-3. 만시지탄</t>
+1. 수불석권
+2. 일사불란
+3. 비육지탄</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1, 비육지탄, 
+          <t>3, 비육지탄, 
 1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
 2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
-3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다(Sigh)</t>
+3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
         </is>
       </c>
     </row>
@@ -744,14 +744,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>切齒腐心
-1. 토사구팽
-2. 절치부심
-3. 비육지탄</t>
+1. 절치부심
+2. 만시지탄
+3. 망양지탄</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임(Chopping)</t>
+          <t>1, 절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
         </is>
       </c>
     </row>
@@ -760,8 +760,8 @@
         <is>
           <t>事必歸正
 1. 사필귀정
-2. 한강투석
-3. 우이독경</t>
+2. 풍목지비
+3. 맥수지탄</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -774,14 +774,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>風木之悲
-1. 풍목지비
-2. 사필귀정
-3. 수불석권(Scroll)</t>
+1. 일사불란
+2. 풍목지비
+3. 은인자중</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 풍목지비, (→風樹之歎(풍수지탄))</t>
+          <t>2, 풍목지비, (→風樹之歎(풍수지탄))</t>
         </is>
       </c>
     </row>
@@ -789,8 +789,8 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>辟邪進慶
-1. 망양지탄
-2. 낭중지추
+1. 은인자중
+2. 비육지탄
 3. 벽사진경</t>
         </is>
       </c>
@@ -804,14 +804,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>牽強附會
-1. 맥수지탄
-2. 견강부회
-3. 아전인수</t>
+1. 견강부회
+2. 우이독경
+3. 벽사진경</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2, 견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
+          <t>1, 견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
         </is>
       </c>
     </row>
@@ -819,14 +819,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>隱忍自重
-1. 사필귀정
+1. 절치부심
 2. 은인자중
-3. 한강투석</t>
+3. 곡복사신</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2, 은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함(Forbearance)</t>
+          <t>2, 은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
         </is>
       </c>
     </row>
@@ -835,8 +835,8 @@
         <is>
           <t>囊中之錐
 1. 낭중지추
-2. 맥수지탄
-3. 풍목지비</t>
+2. 일사불란
+3. 한강투석</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -849,14 +849,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>錐處囊中
-1. 수불석권(Scroll)
-2. 추처낭중
-3. 맥수지탄</t>
+1. 낭중지추
+2. 망양지탄
+3. 추처낭중</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>3, 추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,193 +448,479 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>富貴功名
-1. 우이독경
-2. 부귀공명
-3. 맥수지탄</t>
+          <t xml:space="preserve">護疾忌醫
+1. 호질기의
+2. 도행역시
+3. 화이부동 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 부귀공명</t>
+          <t>1, 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>藏頭露尾
+1. 토사구팽
+2. 간어제초
+3. 장두노미</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3, 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>倒行逆施
+1. 묵묵부답
+2. 금석맹약
+3. 도행역시</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3, 도행역시, 「차례(次例)를 거꾸로 시행(施行)한다」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>破邪顯正
+1. 파사현정
+2. 오월동주
+3. 일사불란</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>束手無策
+1. 속수무책
+2. 이합집산
+3. 대마불사</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1, 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>離合集散
+1. 전력투구
+2. 언중유골
+3. 이합집산</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, 이합집산, 헤어졌다가 모였다가 하는 일</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>格物致知
+1. 맥수지탄
+2. 장두노미
+3. 격물치지</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3, 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龍蛇飛騰
+1. 용사비등
+2. 붕우유신
+3. 장유유서</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1, 용사비등,「용과 뱀이 하늘로 날아오르다」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>畫蛇添足
+1. 화사첨족
+2. 붕우유신
+3. 맥수지탄</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1, 화사첨족, 「뱀을 그리고 발을 더한다」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>針小棒大
+1. 목불식정
+2. 침소봉대
+3. 일사불란</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2, 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>犬馬之誠
+1. 망양지탄
+2. 견마지성
+3. 군신유의</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2, 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>反哺之孝
+1. 반포지효
+2. 개세지재
+3. 절치부심</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1, 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>間於齊楚
+1. 간어제초
+2. 벽사진경
+3. 주마간산</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>蓋世之才
+1. 화사첨족
+2. 개세지재
+3. 비육지탄</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣) 또는 그러한 재기(才氣)를 가진 사람</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>朋友有信
+1. 맥수지탄
+2. 붕우유신
+3. 전력투구</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 붕우유신, 오륜(五倫)의 하나 친구(親舊) 사이의 도리(道理)는 믿음에 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>長幼有序
+1. 아전인수
+2. 장유유서
+3. 조민유화</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2, 장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>君臣有義
+1. 용사비등
+2. 파사현정
+3. 군신유의</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>夫婦有別
+1. 토사구팽
+2. 공공기업
+3. 부부유별</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3, 부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>父子有親
+1. 조민유화
+2. 부자유친
+3. 사필귀정</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, 부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>富貴功名
+1. 한강투석
+2. 낭중지추
+3. 부귀공명</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3, 부귀공명</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>全力投球
 1. 전력투구
-2. 망양지탄
-3. 만시지탄</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+2. 반포지효
+3. 용사비등</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>1, 전력투구</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>兎死狗烹
-1. 맥수지탄
-2. 낭중지추
+1. 비육지탄
+2. 수불석권
 3. 토사구팽</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>3, 토사구팽</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>捲土重來
-1. 만시지탄
-2. 부귀공명
+1. 사필귀정
+2. 수불석권
 3. 권토중래</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>3, 권토중래</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>手不釋卷
-1. 일사불란
-2. 맥수지탄
+1. 금석맹약
+2. 은인자중
 3. 수불석권</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>3, 수불석권</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>我田引水
-1. 은인자중
-2. 아전인수
-3. 추처낭중</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2, 아전인수</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+1. 아전인수
+2. 언어도단
+3. 용사비등</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1, 아전인수</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>對症療法
-1. 대증요법
-2. 추처낭중
-3. 벽사진경</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 대증요법</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+1. 불문곡직
+2. 대증요법
+3. 사필귀정</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2, 대증요법</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>和而不同
-1. 만시지탄
+1. 장두노미
 2. 화이부동 
-3. 풍목지비</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+3. 언어도단</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>2, 화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>一絲不亂
-1. 권토중래
-2. 경국지사
-3. 일사불란</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+1. 고진감래
+2. 일사불란
+3. 부부유별</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>穀腹絲身
-1. 대증요법
+1. 화이부동 
 2. 곡복사신
 3. 부귀공명</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>2, 곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>牛耳讀經
-1. 우이독경
-2. 권토중래
-3. 맥수지탄</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1, 우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+1. 목불식정
+2. 우이독경
+3. 장유유서</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2, 우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>經國之士
-1. 절치부심
-2. 경국지사
-3. 낭중지추</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 경국지사, 나랏일을 다스릴 만한 사람</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+1. 주마간산
+2. 반포지효
+3. 경국지사</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 경국지사, 나랏일을 다스릴 만한 사람</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>漢江投石
-1. 우이독경
-2. 전력투구
+1. 비육지탄
+2. 공도동망
 3. 한강투석</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>3, 한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
 1) 아무리 도와도 보람이 없는 것
@@ -642,96 +928,78 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>麥秀之歎
-1. 한강투석
+1. 격물치지
 2. 맥수지탄
-3. 망양지탄</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+3. 토사구팽</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>2, 맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>風樹之歎
-1. 대증요법
-2. 만시지탄
+1. 금석맹약
+2. 격물치지
 3. 풍수지탄</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>3, 풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>亡羊之歎
-1. 권토중래
-2. 수불석권
-3. 망양지탄</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3, 망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>亡羊之歎/望洋之歎
+1. 망양지탄
+2. 비육지탄
+3. 양두구육</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
 1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
 2) 방침(方針)이 많아 할 바를 모르게 됨</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>望洋之歎
-1. 낭중지추
-2. 망양지탄
-3. 견강부회</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2, 망양지탄, 
-1) 「넓은 바다를 보고 탄식(歎息)한다」는 뜻으로,
-2) 남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩)
-3) 제힘이 미치지 못할 때 하는 탄식(歎息)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>晩時之歎
-1. 사필귀정
-2. 망양지탄
+1. 파사현정
+2. 방휼지쟁
 3. 만시지탄</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>3, 만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>髀肉之嘆
-1. 수불석권
-2. 일사불란
+1. 풍목지비
+2. 만시지탄
 3. 비육지탄</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>3, 비육지탄, 
 1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
@@ -740,123 +1008,433 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>切齒腐心
 1. 절치부심
-2. 만시지탄
-3. 망양지탄</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+2. 권토중래
+3. 금석맹약</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>1, 절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>事必歸正
 1. 사필귀정
-2. 풍목지비
-3. 맥수지탄</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+2. 오월동주
+3. 양두구육</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>1, 사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>風木之悲
-1. 일사불란
-2. 풍목지비
+1. 속수무책
+2. 언어도단
+3. 풍목지비</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 풍목지비, (→風樹之歎(풍수지탄))</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>辟邪進慶
+1. 목불식정
+2. 곡복사신
+3. 벽사진경</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3, 벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>牽強附會
+1. 한강투석
+2. 장두노미
+3. 견강부회</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>隱忍自重
+1. 부자유친
+2. 묵묵부답
 3. 은인자중</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 풍목지비, (→風樹之歎(풍수지탄))</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>辟邪進慶
-1. 은인자중
-2. 비육지탄
-3. 벽사진경</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>牽強附會
-1. 견강부회
-2. 우이독경
-3. 벽사진경</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1, 견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>隱忍自重
-1. 절치부심
-2. 은인자중
-3. 곡복사신</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2, 은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>吳越同舟
+1. 오월동주
+2. 곡복사신
+3. 붕우유신</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1, 오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>囊中之錐
+1. 비육지탄
+2. 낭중지추
+3. 사필귀정</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>錐處囊中
+1. 추처낭중
+2. 공공기업
+3. 권토중래</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>蚌鷸之爭
+1. 방휼지쟁
+2. 곡복사신
+3. 용사비등</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1, 방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>羊頭狗肉
+1. 양두구육
+2. 침소봉대
+3. 풍수지탄</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1, 양두구육, 
+1) 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
+2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 
+3) 겉과 속이 서로 다름</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>綿裏藏針
+1. 면리장침
+2. 양두구육
+3. 도행역시</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1, 면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>後生可畏
+1. 망양지탄
+2. 후생가외
+3. 풍수지탄</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2, 후생가외, 「젊은 후학(後學)들을 두려워할 만하다」는 뜻으로, 후진(後進)들이 선배(先輩)들보다 젊고 기력(氣力)이 좋아, 학문(學問)을 닦음에 따라 큰 인물(人物)이 될 수 있으므로 가히 두렵다는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>不問曲直
+1. 불문곡직
+2. 속수무책
+3. 토사구팽</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1, 불문곡직, 
+1) 「굽음과 곧음을 묻지 않는다」는 뜻으로,
+2) 옳고 그름을 가리지 않고 함부로 일을 처리(處理)함 
+3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>道聽塗說
+1. 도청도설
+2. 오월동주
+3. 경국지사</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1, 도청도설, 
+1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
+2) 거리에서 들은 것을 남에게 아는 체하며 말함 
+3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>大馬不死
+1. 대마불사
+2. 방휼지쟁
+3. 부자유친</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1, 대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>拈華微笑
+1. 공도동망
+2. 염화미소
+3. 회자정리</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2, 염화미소, 「꽃을 집어 들고 웃음을 띠다.」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전(傳)하는 일을 이르는 말. 불교(佛敎)에서 이심전심(以心傳心)의 뜻으로 쓰이는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>苦盡甘來
+1. 고진감래
+2. 회자정리
+3. 권토중래</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1, 고진감래, 「쓴 것이 다하면 단 것이 온다.」는 뜻으로, 고생(苦生) 끝에 낙이 온다라는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>目不識丁
+1. 사필귀정
+2. 목불식정
+3. 풍수지탄</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2, 목불식정, 「고무래를 보고도 그것이 고무래 정(丁)자인 줄 모른다.」는 뜻으로, 글자를 전혀 모름. 또는 그러한 사람을 비유(比喩ㆍ譬喩)해 이르는 말. 낫 놓고 기역자도 모른다. 일자무식을 이르는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>公共企業
+1. 공공기업
+2. 조민유화
+3. 속수무책</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1, 공공기업</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>共倒同亡
 1. 낭중지추
-2. 일사불란
-3. 한강투석</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1, 낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>錐處囊中
-1. 낭중지추
-2. 망양지탄
-3. 추처낭중</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3, 추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+2. 공도동망
+3. 장두노미</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2, 공도동망, 「넘어져도 같이 넘어지고 망(亡)하여도 같이 망(亡)한다.」는 뜻으로, 운명(運命)을 같이 하는 것.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>言語道斷
+1. 개세지재
+2. 언어도단
+3. 은인자중</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2, 언어도단, 「말할 길이 끊어졌다.」는 뜻으로, 곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>言中有骨
+1. 사필귀정
+2. 언중유골
+3. 용사비등</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2, 언중유골, 「말속에 뼈가 있다.」는 뜻으로, 예사(例事)로운 표현(表現) 속에 만만치 않은 뜻이 들어 있음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>會者定離
+1. 회자정리
+2. 금석맹약
+3. 호질기의</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1, 회자정리</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>兆民有和
+1. 도행역시
+2. 조민유화
+3. 공도동망</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2, 조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>走馬看山
+1. 주마간산
+2. 염화미소
+3. 용사비등</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1, 주마간산</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>默默不答
+1. 묵묵부답
+2. 군신유의
+3. 고진감래</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1, 묵묵부답</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>金石盟約
+1. 용사비등
+2. 금석맹약
+3. 불문곡직</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2, 금석맹약, 쇠와 돌같이 굳게 맹세(盟誓)하여 맺은 약속(約束).</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어4글자.xlsx
@@ -448,15 +448,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">護疾忌醫
-1. 호질기의
-2. 도행역시
-3. 화이부동 </t>
+          <t>護疾忌醫
+1. 곡복사신
+2. 호질기의
+3. 개세지재</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
+          <t>2, 호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>藏頭露尾
-1. 토사구팽
-2. 간어제초
-3. 장두노미</t>
+1. 장두노미
+2. 후생가외
+3. 곡복사신</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
+          <t>1, 장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>倒行逆施
-1. 묵묵부답
-2. 금석맹약
+1. 고진감래
+2. 아전인수
 3. 도행역시</t>
         </is>
       </c>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>破邪顯正
-1. 파사현정
-2. 오월동주
-3. 일사불란</t>
+1. 격물치지
+2. 아전인수
+3. 파사현정</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
+          <t>3, 파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>束手無策
-1. 속수무책
-2. 이합집산
-3. 대마불사</t>
+1. 개세지재
+2. 간어제초
+3. 속수무책</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
+          <t>3, 속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>離合集散
-1. 전력투구
-2. 언중유골
+1. 풍목지비
+2. 파사현정
 3. 이합집산</t>
         </is>
       </c>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>格物致知
-1. 맥수지탄
-2. 장두노미
-3. 격물치지</t>
+1. 붕우유신
+2. 격물치지
+3. 후생가외</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+          <t>2, 격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
         </is>
       </c>
     </row>
@@ -555,8 +555,8 @@
         <is>
           <t>龍蛇飛騰
 1. 용사비등
-2. 붕우유신
-3. 장유유서</t>
+2. 주마간산
+3. 낭중지추</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -570,8 +570,8 @@
         <is>
           <t>畫蛇添足
 1. 화사첨족
-2. 붕우유신
-3. 맥수지탄</t>
+2. 반포지효
+3. 일사불란</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>針小棒大
-1. 목불식정
-2. 침소봉대
-3. 일사불란</t>
+1. 침소봉대
+2. 풍목지비
+3. 고진감래</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2, 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
+          <t xml:space="preserve">1, 침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>犬馬之誠
-1. 망양지탄
-2. 견마지성
-3. 군신유의</t>
+1. 부자유친
+2. 언중유골
+3. 견마지성</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+          <t>3, 견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
 남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말</t>
         </is>
       </c>
@@ -615,14 +615,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>反哺之孝
-1. 반포지효
-2. 개세지재
-3. 절치부심</t>
+1. 토사구팽
+2. 반포지효
+3. 개세지재</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1, 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
+          <t xml:space="preserve">2, 반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
         </is>
       </c>
     </row>
@@ -630,14 +630,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>間於齊楚
-1. 간어제초
-2. 벽사진경
-3. 주마간산</t>
+1. 양두구육
+2. 묵묵부답
+3. 간어제초</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1, 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
+          <t>3, 간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
         </is>
       </c>
     </row>
@@ -645,9 +645,9 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>蓋世之才
-1. 화사첨족
+1. 망양지탄
 2. 개세지재
-3. 비육지탄</t>
+3. 붕우유신</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -660,9 +660,9 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>朋友有信
-1. 맥수지탄
+1. 추처낭중
 2. 붕우유신
-3. 전력투구</t>
+3. 수불석권</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -675,29 +675,29 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>長幼有序
-1. 아전인수
-2. 장유유서
-3. 조민유화</t>
+1. 부자유친
+2. 언어도단
+3. 장유유서</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
+          <t>3, 장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>君臣有義
-1. 용사비등
-2. 파사현정
-3. 군신유의</t>
+          <t xml:space="preserve">君臣有義
+1. 군신유의
+2. 추처낭중
+3. 화이부동 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
+          <t>1, 군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
         </is>
       </c>
     </row>
@@ -705,14 +705,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>夫婦有別
-1. 토사구팽
-2. 공공기업
-3. 부부유별</t>
+1. 부부유별
+2. 군신유의
+3. 만시지탄</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3, 부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
+          <t>1, 부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
         </is>
       </c>
     </row>
@@ -720,14 +720,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>父子有親
-1. 조민유화
-2. 부자유친
-3. 사필귀정</t>
+1. 풍수지탄
+2. 수불석권
+3. 부자유친</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+          <t>3, 부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
         </is>
       </c>
     </row>
@@ -735,14 +735,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>富貴功名
-1. 한강투석
-2. 낭중지추
-3. 부귀공명</t>
+1. 부귀공명
+2. 사필귀정
+3. 양두구육</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 부귀공명</t>
+          <t>1, 부귀공명</t>
         </is>
       </c>
     </row>
@@ -750,14 +750,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>全力投球
-1. 전력투구
-2. 반포지효
-3. 용사비등</t>
+1. 부자유친
+2. 전력투구
+3. 대마불사</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 전력투구</t>
+          <t>2, 전력투구</t>
         </is>
       </c>
     </row>
@@ -765,14 +765,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>兎死狗烹
-1. 비육지탄
-2. 수불석권
-3. 토사구팽</t>
+1. 용사비등
+2. 토사구팽
+3. 조민유화</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 토사구팽</t>
+          <t>2, 토사구팽</t>
         </is>
       </c>
     </row>
@@ -780,8 +780,8 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>捲土重來
-1. 사필귀정
-2. 수불석권
+1. 붕우유신
+2. 오월동주
 3. 권토중래</t>
         </is>
       </c>
@@ -795,14 +795,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>手不釋卷
-1. 금석맹약
-2. 은인자중
-3. 수불석권</t>
+1. 수불석권
+2. 우이독경
+3. 공도동망</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 수불석권</t>
+          <t>1, 수불석권</t>
         </is>
       </c>
     </row>
@@ -810,14 +810,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>我田引水
-1. 아전인수
-2. 언어도단
-3. 용사비등</t>
+1. 면리장침
+2. 아전인수
+3. 만시지탄</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1, 아전인수</t>
+          <t>2, 아전인수</t>
         </is>
       </c>
     </row>
@@ -825,9 +825,9 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>對症療法
-1. 불문곡직
+1. 후생가외
 2. 대증요법
-3. 사필귀정</t>
+3. 견마지성</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -840,9 +840,9 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>和而不同
-1. 장두노미
+1. 간어제초
 2. 화이부동 
-3. 언어도단</t>
+3. 낭중지추</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -855,14 +855,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>一絲不亂
-1. 고진감래
-2. 일사불란
-3. 부부유별</t>
+1. 일사불란
+2. 언중유골
+3. 견마지성</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
+          <t>1, 일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
     </row>
@@ -870,14 +870,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>穀腹絲身
-1. 화이부동 
-2. 곡복사신
-3. 부귀공명</t>
+1. 곡복사신
+2. 후생가외
+3. 부자유친</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 곡복사신, 밥 먹고 옷 입는 일</t>
+          <t>1, 곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
     </row>
@@ -885,14 +885,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>牛耳讀經
-1. 목불식정
-2. 우이독경
-3. 장유유서</t>
+1. 우이독경
+2. 대마불사
+3. 비육지탄</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2, 우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
+          <t>1, 우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
         </is>
       </c>
     </row>
@@ -900,8 +900,8 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>經國之士
-1. 주마간산
-2. 반포지효
+1. 절치부심
+2. 은인자중
 3. 경국지사</t>
         </is>
       </c>
@@ -915,14 +915,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>漢江投石
-1. 비육지탄
-2. 공도동망
-3. 한강투석</t>
+1. 망양지탄
+2. 한강투석
+3. 용사비등</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3, 한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
+          <t>2, 한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
 1) 아무리 도와도 보람이 없는 것
 2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
@@ -931,10 +931,10 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>麥秀之歎
-1. 격물치지
+          <t xml:space="preserve">麥秀之歎
+1. 풍수지탄
 2. 맥수지탄
-3. 토사구팽</t>
+3. 화이부동 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -947,8 +947,8 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>風樹之歎
-1. 금석맹약
-2. 격물치지
+1. 사필귀정
+2. 우이독경
 3. 풍수지탄</t>
         </is>
       </c>
@@ -962,14 +962,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>亡羊之歎/望洋之歎
-1. 망양지탄
-2. 비육지탄
-3. 양두구육</t>
+1. 공도동망
+2. 풍수지탄
+3. 망양지</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1, 망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
+          <t>3, 망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
 1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
 2) 방침(方針)이 많아 할 바를 모르게 됨</t>
         </is>
@@ -979,14 +979,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>晩時之歎
-1. 파사현정
-2. 방휼지쟁
-3. 만시지탄</t>
+1. 만시지탄
+2. 금석맹약
+3. 고진감래</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3, 만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
+          <t>1, 만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
         </is>
       </c>
     </row>
@@ -994,8 +994,8 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>髀肉之嘆
-1. 풍목지비
-2. 만시지탄
+1. 곡복사신
+2. 이합집산
 3. 비육지탄</t>
         </is>
       </c>
@@ -1012,14 +1012,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>切齒腐心
-1. 절치부심
-2. 권토중래
-3. 금석맹약</t>
+1. 풍목지비
+2. 부자유친
+3. 절치부심</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
+          <t>3, 절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
         </is>
       </c>
     </row>
@@ -1028,8 +1028,8 @@
         <is>
           <t>事必歸正
 1. 사필귀정
-2. 오월동주
-3. 양두구육</t>
+2. 수불석권
+3. 붕우유신</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1042,8 +1042,8 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>風木之悲
-1. 속수무책
-2. 언어도단
+1. 침소봉대
+2. 면리장침
 3. 풍목지비</t>
         </is>
       </c>
@@ -1057,14 +1057,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>辟邪進慶
-1. 목불식정
-2. 곡복사신
-3. 벽사진경</t>
+1. 붕우유신
+2. 벽사진경
+3. 사필귀정</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3, 벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
+          <t>2, 벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
         </is>
       </c>
     </row>
@@ -1072,14 +1072,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>牽強附會
-1. 한강투석
-2. 장두노미
-3. 견강부회</t>
+1. 견강부회
+2. 아전인수
+3. 곡복사신</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3, 견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
+          <t>1, 견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
         </is>
       </c>
     </row>
@@ -1087,14 +1087,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>隱忍自重
-1. 부자유친
-2. 묵묵부답
-3. 은인자중</t>
+1. 은인자중
+2. 공도동망
+3. 도청도설</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3, 은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
+          <t>1, 은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
         </is>
       </c>
     </row>
@@ -1102,14 +1102,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>吳越同舟
-1. 오월동주
-2. 곡복사신
-3. 붕우유신</t>
+1. 추처낭중
+2. 토사구팽
+3. 오월동주</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1, 오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+          <t>3, 오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
 2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
@@ -1118,9 +1118,9 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>囊中之錐
-1. 비육지탄
+1. 도청도설
 2. 낭중지추
-3. 사필귀정</t>
+3. 부부유별</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1133,24 +1133,24 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>錐處囊中
-1. 추처낭중
-2. 공공기업
-3. 권토중래</t>
+1. 장두노미
+2. 추처낭중
+3. 장유유서</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>2, 추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>蚌鷸之爭
+          <t xml:space="preserve">蚌鷸之爭
 1. 방휼지쟁
-2. 곡복사신
-3. 용사비등</t>
+2. 군신유의
+3. 화이부동 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1164,8 +1164,8 @@
         <is>
           <t>羊頭狗肉
 1. 양두구육
-2. 침소봉대
-3. 풍수지탄</t>
+2. 오월동주
+3. 침소봉대</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1181,14 +1181,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>綿裏藏針
-1. 면리장침
-2. 양두구육
-3. 도행역시</t>
+1. 부귀공명
+2. 면리장침
+3. 개세지재</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1, 면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
+          <t>2, 면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
         </is>
       </c>
     </row>
@@ -1196,9 +1196,9 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>後生可畏
-1. 망양지탄
+1. 수불석권
 2. 후생가외
-3. 풍수지탄</t>
+3. 이합집산</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1212,8 +1212,8 @@
         <is>
           <t>不問曲直
 1. 불문곡직
-2. 속수무책
-3. 토사구팽</t>
+2. 반포지효
+3. 만시지탄</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1229,14 +1229,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>道聽塗說
-1. 도청도설
-2. 오월동주
-3. 경국지사</t>
+1. 전력투구
+2. 도청도설
+3. 벽사진경</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1, 도청도설, 
+          <t>2, 도청도설, 
 1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
 2) 거리에서 들은 것을 남에게 아는 체하며 말함 
 3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
@@ -1247,14 +1247,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>大馬不死
-1. 대마불사
-2. 방휼지쟁
-3. 부자유친</t>
+1. 추처낭중
+2. 화이부동 
+3. 대마불사</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1, 대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
+          <t>3, 대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
         </is>
       </c>
     </row>
@@ -1262,9 +1262,9 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>拈華微笑
-1. 공도동망
+1. 화사첨족
 2. 염화미소
-3. 회자정리</t>
+3. 군신유의</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1277,14 +1277,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>苦盡甘來
-1. 고진감래
-2. 회자정리
-3. 권토중래</t>
+1. 장유유서
+2. 양두구육
+3. 고진감래</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1, 고진감래, 「쓴 것이 다하면 단 것이 온다.」는 뜻으로, 고생(苦生) 끝에 낙이 온다라는 말.</t>
+          <t>3, 고진감래, 「쓴 것이 다하면 단 것이 온다.」는 뜻으로, 고생(苦生) 끝에 낙이 온다라는 말.</t>
         </is>
       </c>
     </row>
@@ -1292,14 +1292,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>目不識丁
-1. 사필귀정
-2. 목불식정
-3. 풍수지탄</t>
+1. 목불식정
+2. 공공기업
+3. 호질기의</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2, 목불식정, 「고무래를 보고도 그것이 고무래 정(丁)자인 줄 모른다.」는 뜻으로, 글자를 전혀 모름. 또는 그러한 사람을 비유(比喩ㆍ譬喩)해 이르는 말. 낫 놓고 기역자도 모른다. 일자무식을 이르는 말.</t>
+          <t>1, 목불식정, 「고무래를 보고도 그것이 고무래 정(丁)자인 줄 모른다.」는 뜻으로, 글자를 전혀 모름. 또는 그러한 사람을 비유(比喩ㆍ譬喩)해 이르는 말. 낫 놓고 기역자도 모른다. 일자무식을 이르는 말.</t>
         </is>
       </c>
     </row>
@@ -1307,14 +1307,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>公共企業
-1. 공공기업
-2. 조민유화
-3. 속수무책</t>
+1. 추처낭중
+2. 격물치지
+3. 공공기업</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1, 공공기업</t>
+          <t>3, 공공기업</t>
         </is>
       </c>
     </row>
@@ -1322,9 +1322,9 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>共倒同亡
-1. 낭중지추
+1. 견마지성
 2. 공도동망
-3. 장두노미</t>
+3. 만시지탄</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1337,9 +1337,9 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>言語道斷
-1. 개세지재
+1. 맥수지탄
 2. 언어도단
-3. 은인자중</t>
+3. 주마간산</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1352,14 +1352,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>言中有骨
-1. 사필귀정
-2. 언중유골
-3. 용사비등</t>
+1. 오월동주
+2. 벽사진경
+3. 언중유골</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2, 언중유골, 「말속에 뼈가 있다.」는 뜻으로, 예사(例事)로운 표현(表現) 속에 만만치 않은 뜻이 들어 있음.</t>
+          <t>3, 언중유골, 「말속에 뼈가 있다.」는 뜻으로, 예사(例事)로운 표현(表現) 속에 만만치 않은 뜻이 들어 있음.</t>
         </is>
       </c>
     </row>
@@ -1367,14 +1367,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>會者定離
-1. 회자정리
-2. 금석맹약
-3. 호질기의</t>
+1. 후생가외
+2. 회자정리
+3. 방휼지쟁</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1, 회자정리</t>
+          <t>2, 회자정리</t>
         </is>
       </c>
     </row>
@@ -1382,14 +1382,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>兆民有和
-1. 도행역시
-2. 조민유화
-3. 공도동망</t>
+1. 화이부동 
+2. 공공기업
+3. 조민유화</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2, 조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
+          <t>3, 조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
         </is>
       </c>
     </row>
@@ -1398,8 +1398,8 @@
         <is>
           <t>走馬看山
 1. 주마간산
-2. 염화미소
-3. 용사비등</t>
+2. 장두노미
+3. 격물치지</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1412,14 +1412,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>默默不答
-1. 묵묵부답
-2. 군신유의
-3. 고진감래</t>
+1. 권토중래
+2. 사필귀정
+3. 묵묵부답</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1, 묵묵부답</t>
+          <t>3, 묵묵부답</t>
         </is>
       </c>
     </row>
@@ -1427,14 +1427,14 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>金石盟約
-1. 용사비등
-2. 금석맹약
-3. 불문곡직</t>
+1. 금석맹약
+2. 아전인수
+3. 조민유화</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2, 금석맹약, 쇠와 돌같이 굳게 맹세(盟誓)하여 맺은 약속(約束).</t>
+          <t>1, 금석맹약, 쇠와 돌같이 굳게 맹세(盟誓)하여 맺은 약속(約束).</t>
         </is>
       </c>
     </row>
